--- a/MOBA-Manager/MOBA-Manager/Excel/Database Update.xlsx
+++ b/MOBA-Manager/MOBA-Manager/Excel/Database Update.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
